--- a/REVER_DailyTracker_20200901.xlsx
+++ b/REVER_DailyTracker_20200901.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Desktop\All Documents\Rever\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE49E2C7-EFA4-431F-935D-DD6F60884224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -25,12 +19,12 @@
     <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -76,11 +70,20 @@
   <si>
     <t xml:space="preserve">Regression testing on B2C , B2B, GSS and  Vastu shashtra site </t>
   </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Migration with sonia projects(Homac &amp; Kurogenya)</t>
+  </si>
+  <si>
+    <t>Completes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -284,7 +287,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -665,11 +668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -798,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -909,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1024,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1066,12 +1069,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
@@ -1135,7 +1150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1246,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1346,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1457,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1679,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REVER_DailyTracker_20200901.xlsx
+++ b/REVER_DailyTracker_20200901.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\August\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE72060A-67DE-4C6A-8313-79B8D787096B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9CC4A6-6C4A-46F4-9224-8743E042E345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2076" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="142">
   <si>
     <t>Task</t>
   </si>
@@ -506,6 +500,12 @@
   </si>
   <si>
     <t>3. SawDiscount has been completed and tested in all SSCs, whereas Stockoverview is pending due to GSPN site issue.</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Issues Fix </t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +536,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -614,10 +636,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -656,9 +681,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{243D8F17-A91B-446D-85A3-D58E4055B143}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -973,22 +1006,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="G297" sqref="G297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1042,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1019,8 +1052,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1043,10 +1076,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1060,9 +1093,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1076,9 +1109,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1092,8 +1125,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1110,19 +1143,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1140,13 +1173,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1190,12 +1223,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1203,7 +1236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1225,7 +1258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1236,12 +1269,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1252,7 +1285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1263,12 +1296,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1292,7 +1325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1300,12 +1333,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1313,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1321,7 +1354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1337,12 +1370,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1350,7 +1383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1358,7 +1391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1382,12 +1415,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1427,12 +1460,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1488,12 +1521,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1509,12 +1542,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1522,22 +1555,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1561,7 +1594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1569,12 +1602,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1582,7 +1615,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1623,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1598,17 +1631,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1616,7 +1649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1624,17 +1657,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1642,12 +1675,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1655,27 +1688,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1683,12 +1716,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1696,7 +1729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1704,12 +1737,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1717,7 +1750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1725,12 +1758,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1738,7 +1771,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1746,7 +1779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1754,17 +1787,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1772,12 +1805,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1785,7 +1818,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1793,12 +1826,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1806,17 +1839,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1824,7 +1857,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1832,12 +1865,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1845,7 +1878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1861,7 +1894,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1869,12 +1902,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:7">
       <c r="D280" t="s">
         <v>108</v>
       </c>
@@ -1882,12 +1915,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:7">
       <c r="G281" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:7">
       <c r="D283" t="s">
         <v>108</v>
       </c>
@@ -1895,12 +1928,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:7">
       <c r="G284" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:7">
       <c r="D288" t="s">
         <v>108</v>
       </c>
@@ -1908,12 +1941,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:7">
       <c r="G289" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:7" ht="45">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -1921,7 +1954,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:7">
       <c r="D295" t="s">
         <v>107</v>
       </c>
@@ -1929,12 +1962,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:7">
       <c r="G296" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:7">
       <c r="G297" t="s">
         <v>139</v>
       </c>
@@ -1954,18 +1987,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1997,7 +2030,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2006,46 +2039,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2062,22 +2095,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2100,16 +2133,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2118,46 +2159,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2178,18 +2219,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2221,7 +2262,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2230,46 +2271,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2290,18 +2331,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2333,7 +2374,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2342,46 +2383,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2402,18 +2443,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2436,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2457,7 +2498,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2466,46 +2507,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2526,18 +2567,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2569,7 +2610,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2578,46 +2619,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2638,18 +2679,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2681,7 +2722,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2690,46 +2731,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2750,18 +2791,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2793,7 +2834,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2802,46 +2843,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2862,18 +2903,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2905,7 +2946,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2914,46 +2955,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200901.xlsx
+++ b/REVER_DailyTracker_20200901.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9CC4A6-6C4A-46F4-9224-8743E042E345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26301B12-0F73-4CA1-B2E8-EF464370D654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="145">
   <si>
     <t>Task</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t xml:space="preserve">Testing Issues Fix </t>
+  </si>
+  <si>
+    <t>QMVAr-RPA</t>
+  </si>
+  <si>
+    <t>Purchase Summary issue on date</t>
+  </si>
+  <si>
+    <t>Corrected the date logic and tested</t>
   </si>
 </sst>
 </file>
@@ -1010,15 +1019,15 @@
       <selection activeCell="G297" sqref="G297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1053,7 +1062,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1088,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1120,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1370,12 +1379,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="60">
+    <row r="216" spans="4:7" ht="43.2">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="45">
+    <row r="292" spans="4:7" ht="43.2">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -1987,15 +1996,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2095,19 +2104,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2133,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2219,15 +2228,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2327,19 +2336,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2368,11 +2377,19 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2443,15 +2460,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2567,15 +2584,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2679,15 +2696,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2791,15 +2808,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2903,15 +2920,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
